--- a/Time_1000.xlsx
+++ b/Time_1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\ASD_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1452F2E-E07C-4D4A-AE2E-BC3AD4C27572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D194768D-6068-4EDF-B713-8FDA07058EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -503,1127 +503,1116 @@
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1">
-        <f>MEDIAN(A2:A102)</f>
-        <v>11100</v>
+        <f>MEDIAN(A2:A101)</f>
+        <v>13950</v>
       </c>
       <c r="I1">
-        <f t="shared" ref="I1:J1" si="0">MEDIAN(B2:B102)</f>
-        <v>108800</v>
+        <f>MEDIAN(B2:B101)</f>
+        <v>803.5</v>
       </c>
       <c r="J1">
-        <f t="shared" si="0"/>
-        <v>452900</v>
+        <f>MEDIAN(C2:C101)</f>
+        <v>3900</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>23200</v>
+        <v>1031200</v>
       </c>
       <c r="B2">
-        <v>414400</v>
+        <v>499500</v>
       </c>
       <c r="C2">
-        <v>362800</v>
+        <v>512000</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>11999</v>
+        <v>16200</v>
       </c>
       <c r="B3">
-        <v>12300</v>
+        <v>6500</v>
       </c>
       <c r="C3">
-        <v>10300</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>14100</v>
+        <v>17800</v>
       </c>
       <c r="B4">
-        <v>4166</v>
+        <v>5350</v>
       </c>
       <c r="C4">
-        <v>11099</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>13400</v>
+        <v>18700</v>
       </c>
       <c r="B5">
-        <v>6150</v>
+        <v>5550</v>
       </c>
       <c r="C5">
-        <v>8150</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10300</v>
+        <v>18500</v>
       </c>
       <c r="B6">
-        <v>2574</v>
+        <v>5150</v>
       </c>
       <c r="C6">
-        <v>5700</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>13499</v>
+        <v>57700</v>
       </c>
       <c r="B7">
-        <v>13100</v>
+        <v>2975</v>
       </c>
       <c r="C7">
-        <v>7850</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>12101</v>
+        <v>26500</v>
       </c>
       <c r="B8">
-        <v>4200</v>
+        <v>7000</v>
       </c>
       <c r="C8">
-        <v>8500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11500</v>
+        <v>18400</v>
       </c>
       <c r="B9">
-        <v>5300</v>
+        <v>5366</v>
       </c>
       <c r="C9">
-        <v>7600</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>14600</v>
+        <v>22700</v>
       </c>
       <c r="B10">
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="C10">
-        <v>7850</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>12300</v>
+        <v>18000</v>
       </c>
       <c r="B11">
-        <v>3900</v>
+        <v>5650</v>
       </c>
       <c r="C11">
-        <v>15900</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8150</v>
+        <v>18100</v>
       </c>
       <c r="B12">
-        <v>5900</v>
+        <v>6850</v>
       </c>
       <c r="C12">
-        <v>7750</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7700</v>
+        <v>18600</v>
       </c>
       <c r="B13">
-        <v>4367</v>
+        <v>5250</v>
       </c>
       <c r="C13">
-        <v>10200</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10500</v>
+        <v>20700</v>
       </c>
       <c r="B14">
-        <v>4400</v>
+        <v>13600</v>
       </c>
       <c r="C14">
-        <v>6050</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8400</v>
+        <v>17300</v>
       </c>
       <c r="B15">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="C15">
-        <v>6600</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8450</v>
+        <v>21500</v>
       </c>
       <c r="B16">
-        <v>4400</v>
+        <v>13900</v>
       </c>
       <c r="C16">
-        <v>5850</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7750</v>
+        <v>18200</v>
       </c>
       <c r="B17">
-        <v>4433</v>
+        <v>4366</v>
       </c>
       <c r="C17">
-        <v>6600</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>11400</v>
+        <v>15500</v>
       </c>
       <c r="B18">
-        <v>3966</v>
+        <v>4533</v>
       </c>
       <c r="C18">
-        <v>6950</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>27201</v>
+        <v>25300</v>
       </c>
       <c r="B19">
-        <v>3533</v>
+        <v>4133</v>
       </c>
       <c r="C19">
-        <v>6250</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>11201</v>
+        <v>16500</v>
       </c>
       <c r="B20">
-        <v>4599</v>
+        <v>15000</v>
       </c>
       <c r="C20">
-        <v>6099</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9150</v>
+        <v>24100</v>
       </c>
       <c r="B21">
-        <v>5600</v>
+        <v>1585</v>
       </c>
       <c r="C21">
-        <v>6199</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>13700</v>
+        <v>11300</v>
       </c>
       <c r="B22">
-        <v>13700</v>
+        <v>472</v>
       </c>
       <c r="C22">
-        <v>9749</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>13200</v>
+        <v>14500</v>
       </c>
       <c r="B23">
-        <v>13900</v>
+        <v>800</v>
       </c>
       <c r="C23">
-        <v>13401</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>11800</v>
+        <v>16900</v>
       </c>
       <c r="B24">
-        <v>10899</v>
+        <v>1144</v>
       </c>
       <c r="C24">
-        <v>9500</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>11401</v>
+        <v>18600</v>
       </c>
       <c r="B25">
-        <v>2599</v>
+        <v>875</v>
       </c>
       <c r="C25">
-        <v>3933</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>11800</v>
+        <v>19000</v>
       </c>
       <c r="B26">
-        <v>3966</v>
+        <v>1110</v>
       </c>
       <c r="C26">
-        <v>8000</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>11999</v>
+        <v>30900</v>
       </c>
       <c r="B27">
-        <v>4433</v>
+        <v>792</v>
       </c>
       <c r="C27">
-        <v>6550</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10299</v>
+        <v>16300</v>
       </c>
       <c r="B28">
-        <v>11700</v>
+        <v>1060</v>
       </c>
       <c r="C28">
-        <v>7550</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>11801</v>
+        <v>16000</v>
       </c>
       <c r="B29">
-        <v>5050</v>
+        <v>1627</v>
       </c>
       <c r="C29">
-        <v>6300</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>11299</v>
+        <v>16900</v>
       </c>
       <c r="B30">
-        <v>5250</v>
+        <v>858</v>
       </c>
       <c r="C30">
-        <v>11000</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>11101</v>
+        <v>18100</v>
       </c>
       <c r="B31">
-        <v>14300</v>
+        <v>981</v>
       </c>
       <c r="C31">
-        <v>6650</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10999</v>
+        <v>15800</v>
       </c>
       <c r="B32">
-        <v>31800</v>
+        <v>875</v>
       </c>
       <c r="C32">
-        <v>12900</v>
+        <v>30200</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13200</v>
+        <v>15500</v>
       </c>
       <c r="B33">
-        <v>5600</v>
+        <v>807</v>
       </c>
       <c r="C33">
-        <v>6350</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>10300</v>
+        <v>19200</v>
       </c>
       <c r="B34">
-        <v>9600</v>
+        <v>757</v>
       </c>
       <c r="C34">
-        <v>6950</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>13600</v>
+        <v>15300</v>
       </c>
       <c r="B35">
-        <v>4400</v>
+        <v>963</v>
       </c>
       <c r="C35">
-        <v>5749</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>11199</v>
+        <v>17700</v>
       </c>
       <c r="B36">
-        <v>67199</v>
+        <v>925</v>
       </c>
       <c r="C36">
-        <v>20601</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>11100</v>
+        <v>15200</v>
       </c>
       <c r="B37">
-        <v>3833</v>
+        <v>735</v>
       </c>
       <c r="C37">
-        <v>5700</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>12200</v>
+        <v>16200</v>
       </c>
       <c r="B38">
-        <v>3500</v>
+        <v>1102855</v>
       </c>
       <c r="C38">
-        <v>5350</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>27299</v>
+        <v>15700</v>
       </c>
       <c r="B39">
-        <v>8650</v>
+        <v>650</v>
       </c>
       <c r="C39">
-        <v>11600</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>13700</v>
+        <v>15300</v>
       </c>
       <c r="B40">
-        <v>26700</v>
+        <v>605</v>
       </c>
       <c r="C40">
-        <v>7050</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>11800</v>
+        <v>13100</v>
       </c>
       <c r="B41">
-        <v>3700</v>
+        <v>611</v>
       </c>
       <c r="C41">
-        <v>5150</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>11900</v>
+        <v>15100</v>
       </c>
       <c r="B42">
-        <v>1966</v>
+        <v>850</v>
       </c>
       <c r="C42">
-        <v>6100</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>10800</v>
+        <v>14600</v>
       </c>
       <c r="B43">
-        <v>858</v>
+        <v>954</v>
       </c>
       <c r="C43">
-        <v>4200</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>11200</v>
+        <v>15400</v>
       </c>
       <c r="B44">
-        <v>807</v>
+        <v>2042</v>
       </c>
       <c r="C44">
-        <v>15100</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>12501</v>
+        <v>14100</v>
       </c>
       <c r="B45">
-        <v>605</v>
+        <v>742</v>
       </c>
       <c r="C45">
-        <v>5350</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>11100</v>
+        <v>14100</v>
       </c>
       <c r="B46">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="C46">
-        <v>19801</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>15200</v>
+        <v>14400</v>
       </c>
       <c r="B47">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="C47">
-        <v>2300</v>
+        <v>16550</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>16300</v>
+        <v>24900</v>
       </c>
       <c r="B48">
-        <v>1030</v>
+        <v>838</v>
       </c>
       <c r="C48">
-        <v>10500</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>11200</v>
+        <v>12700</v>
       </c>
       <c r="B49">
-        <v>2526200</v>
+        <v>1080</v>
       </c>
       <c r="C49">
-        <v>1350</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>13000</v>
+      </c>
+      <c r="B50">
+        <v>792</v>
+      </c>
+      <c r="C50">
         <v>17700</v>
-      </c>
-      <c r="B50">
-        <v>1177</v>
-      </c>
-      <c r="C50">
-        <v>2574</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>11700</v>
+        <v>15700</v>
       </c>
       <c r="B51">
-        <v>561</v>
+        <v>728</v>
       </c>
       <c r="C51">
-        <v>1833</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="B52">
-        <v>713</v>
+        <v>945</v>
       </c>
       <c r="C52">
-        <v>2120</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>12101</v>
+        <v>35800</v>
       </c>
       <c r="B53">
-        <v>588</v>
+        <v>750</v>
       </c>
       <c r="C53">
-        <v>2080</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>6800</v>
+        <v>11600</v>
       </c>
       <c r="B54">
-        <v>485</v>
+        <v>726</v>
       </c>
       <c r="C54">
-        <v>1189</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>9199</v>
+        <v>11800</v>
       </c>
       <c r="B55">
-        <v>891</v>
+        <v>850</v>
       </c>
       <c r="C55">
-        <v>3500</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="B56">
-        <v>849</v>
+        <v>643</v>
       </c>
       <c r="C56">
-        <v>2200</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>23300</v>
+        <v>11700</v>
       </c>
       <c r="B57">
-        <v>706</v>
+        <v>815</v>
       </c>
       <c r="C57">
-        <v>3566</v>
+        <v>48300</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="B58">
-        <v>1080</v>
+        <v>617</v>
       </c>
       <c r="C58">
-        <v>2120</v>
+        <v>77333</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>10699</v>
+        <v>12700</v>
       </c>
       <c r="B59">
-        <v>858</v>
+        <v>1007</v>
       </c>
       <c r="C59">
-        <v>6150</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>7250</v>
+        <v>12000</v>
       </c>
       <c r="B60">
-        <v>536</v>
+        <v>757</v>
       </c>
       <c r="C60">
-        <v>2740</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="B61">
-        <v>719</v>
+        <v>680</v>
       </c>
       <c r="C61">
-        <v>2039</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>12000</v>
+        <v>10900</v>
       </c>
       <c r="B62">
-        <v>742</v>
+        <v>1040</v>
       </c>
       <c r="C62">
-        <v>2180</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>13101</v>
+        <v>10800</v>
       </c>
       <c r="B63">
-        <v>662</v>
+        <v>800</v>
       </c>
       <c r="C63">
-        <v>1039</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>14800</v>
+        <v>10900</v>
       </c>
       <c r="B64">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="C64">
-        <v>1188</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>11699</v>
+        <v>7700</v>
       </c>
       <c r="B65">
-        <v>963</v>
+        <v>605</v>
       </c>
       <c r="C65">
-        <v>1275</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>12199</v>
+        <v>7800</v>
       </c>
       <c r="B66">
-        <v>650</v>
+        <v>1147</v>
       </c>
       <c r="C66">
-        <v>927</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>13500</v>
+        <v>7450</v>
       </c>
       <c r="B67">
-        <v>6580</v>
+        <v>594</v>
       </c>
       <c r="C67">
-        <v>1144</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>15400</v>
+        <v>7500</v>
       </c>
       <c r="B68">
-        <v>1045</v>
+        <v>588</v>
       </c>
       <c r="C68">
-        <v>1211</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>14900</v>
+        <v>7850</v>
       </c>
       <c r="B69">
-        <v>1020</v>
+        <v>583</v>
       </c>
       <c r="C69">
-        <v>1528</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>12301</v>
+        <v>7650</v>
       </c>
       <c r="B70">
-        <v>699</v>
+        <v>605</v>
       </c>
       <c r="C70">
-        <v>1040</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>12200</v>
+        <v>13800</v>
       </c>
       <c r="B71">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="C71">
-        <v>1177</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>7850</v>
+        <v>15200</v>
       </c>
       <c r="B72">
-        <v>623</v>
+        <v>757</v>
       </c>
       <c r="C72">
-        <v>954</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>11700</v>
+        <v>11200</v>
       </c>
       <c r="B73">
-        <v>721</v>
+        <v>945</v>
       </c>
       <c r="C73">
-        <v>1089</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>10999</v>
+        <v>13700</v>
       </c>
       <c r="B74">
-        <v>700</v>
+        <v>1350</v>
       </c>
       <c r="C74">
-        <v>1177</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>7600</v>
+        <v>14100</v>
       </c>
       <c r="B75">
-        <v>623</v>
+        <v>815</v>
       </c>
       <c r="C75">
-        <v>900</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>10700</v>
+        <v>11900</v>
       </c>
       <c r="B76">
-        <v>792</v>
+        <v>706</v>
       </c>
       <c r="C76">
-        <v>1542</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="B77">
-        <v>1645</v>
+        <v>680</v>
       </c>
       <c r="C77">
-        <v>954</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>10899</v>
+        <v>5700</v>
       </c>
       <c r="B78">
-        <v>706</v>
+        <v>456</v>
       </c>
       <c r="C78">
-        <v>849</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>11100</v>
+        <v>3633</v>
       </c>
       <c r="B79">
-        <v>629</v>
+        <v>520</v>
       </c>
       <c r="C79">
-        <v>936</v>
+        <v>509</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>10500</v>
+        <v>5100</v>
       </c>
       <c r="B80">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C80">
-        <v>1030</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>7750</v>
+        <v>3500</v>
       </c>
       <c r="B81">
-        <v>693</v>
+        <v>433</v>
       </c>
       <c r="C81">
-        <v>1133</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>12499</v>
+        <v>10400</v>
       </c>
       <c r="B82">
-        <v>784</v>
+        <v>945</v>
       </c>
       <c r="C82">
-        <v>1424</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>12899</v>
+        <v>7200</v>
       </c>
       <c r="B83">
-        <v>728</v>
+        <v>883</v>
       </c>
       <c r="C83">
-        <v>1040</v>
+        <v>963</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>13800</v>
+        <v>7650</v>
       </c>
       <c r="B84">
-        <v>850</v>
+        <v>742</v>
       </c>
       <c r="C84">
-        <v>1166</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>16800</v>
+        <v>7850</v>
       </c>
       <c r="B85">
-        <v>764</v>
+        <v>12700</v>
       </c>
       <c r="C85">
-        <v>1275</v>
+        <v>981</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>11399</v>
+        <v>10700</v>
       </c>
       <c r="B86">
-        <v>899</v>
+        <v>392</v>
       </c>
       <c r="C86">
-        <v>1020</v>
+        <v>927</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>7650</v>
+        <v>7150</v>
       </c>
       <c r="B87">
-        <v>693</v>
+        <v>329</v>
       </c>
       <c r="C87">
-        <v>1039</v>
+        <v>735</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>11400</v>
+        <v>12200</v>
       </c>
       <c r="B88">
-        <v>566</v>
+        <v>325</v>
       </c>
       <c r="C88">
-        <v>883</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>12000</v>
+        <v>6150</v>
       </c>
       <c r="B89">
-        <v>784</v>
+        <v>318</v>
       </c>
       <c r="C89">
-        <v>954</v>
+        <v>700</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>5950</v>
+        <v>5400</v>
       </c>
       <c r="B90">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="C90">
-        <v>504</v>
+        <v>735</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>5649</v>
+        <v>3633</v>
       </c>
       <c r="B91">
-        <v>2200</v>
+        <v>268</v>
       </c>
       <c r="C91">
-        <v>1019</v>
+        <v>495</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>11401</v>
+        <v>2950</v>
       </c>
       <c r="B92">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="C92">
-        <v>981</v>
+        <v>515</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>10501</v>
+        <v>3566</v>
       </c>
       <c r="B93">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="C93">
-        <v>1155</v>
+        <v>485</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>6299</v>
+        <v>3533</v>
       </c>
       <c r="B94">
-        <v>415</v>
+        <v>206</v>
       </c>
       <c r="C94">
-        <v>815</v>
+        <v>542</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>11700</v>
+        <v>2975</v>
       </c>
       <c r="B95">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="C95">
-        <v>1166</v>
+        <v>533</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>6800</v>
+        <v>4000</v>
       </c>
       <c r="B96">
-        <v>362</v>
+        <v>206</v>
       </c>
       <c r="C96">
-        <v>1079</v>
+        <v>490</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6999</v>
+        <v>16100</v>
       </c>
       <c r="B97">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="C97">
-        <v>850</v>
+        <v>954</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>6099</v>
+        <v>6250</v>
       </c>
       <c r="B98">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C98">
-        <v>617</v>
+        <v>757</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="B99">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="C99">
-        <v>1133</v>
+        <v>693</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>18599</v>
+        <v>6050</v>
       </c>
       <c r="B100">
-        <v>1277</v>
+        <v>385</v>
       </c>
       <c r="C100">
-        <v>875</v>
+        <v>706</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>6150</v>
+        <v>6200</v>
       </c>
       <c r="B101">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="C101">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>425300</v>
-      </c>
-      <c r="B102">
-        <v>251800</v>
-      </c>
-      <c r="C102">
-        <v>234400</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1632,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,1124 +1648,1124 @@
         <v>2</v>
       </c>
       <c r="D1" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
-      <c r="H1" t="e">
-        <f>MEDIAN(A2:A102)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I1" t="e">
-        <f t="shared" ref="I1:J1" si="0">MEDIAN(B2:B102)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="H1">
+        <f>MEDIAN(A2:A101)</f>
+        <v>13600</v>
+      </c>
+      <c r="I1">
+        <f>MEDIAN(B2:B101)</f>
+        <v>106</v>
+      </c>
+      <c r="J1">
+        <f>MEDIAN(C2:C101)</f>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>25201</v>
+        <v>36500</v>
       </c>
       <c r="B2">
-        <v>286</v>
+        <v>124</v>
       </c>
       <c r="C2">
-        <v>1571</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12801</v>
+        <v>19200</v>
       </c>
       <c r="B3">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="C3">
-        <v>900</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>12400</v>
+        <v>19000</v>
       </c>
       <c r="B4">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="C4">
-        <v>1059</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>40299</v>
+        <v>17500</v>
       </c>
       <c r="B5">
-        <v>275</v>
+        <v>117</v>
       </c>
       <c r="C5">
-        <v>849</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>11699</v>
+        <v>26000</v>
       </c>
       <c r="B6">
-        <v>242</v>
+        <v>119</v>
       </c>
       <c r="C6">
-        <v>838</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>38800</v>
+        <v>27600</v>
       </c>
       <c r="B7">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="C7">
-        <v>1080</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>14500</v>
+        <v>21700</v>
       </c>
       <c r="B8">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="C8">
-        <v>1050</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>18600</v>
+        <v>32000</v>
       </c>
       <c r="B9">
-        <v>309</v>
+        <v>161</v>
       </c>
       <c r="C9">
-        <v>900</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6100</v>
+        <v>29800</v>
       </c>
       <c r="B10">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="C10">
-        <v>990</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6900</v>
+        <v>20100</v>
       </c>
       <c r="B11">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c r="C11">
-        <v>972</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10900</v>
+        <v>17900</v>
       </c>
       <c r="B12">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="C12">
-        <v>981</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10200</v>
+        <v>16800</v>
       </c>
       <c r="B13">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="C13">
-        <v>1054</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6500</v>
+        <v>16800</v>
       </c>
       <c r="B14">
-        <v>271</v>
+        <v>106</v>
       </c>
       <c r="C14">
-        <v>777</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>48600</v>
+        <v>17400</v>
       </c>
       <c r="B15">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c r="C15">
-        <v>1222</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10601</v>
+        <v>20600</v>
       </c>
       <c r="B16">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="C16">
-        <v>954</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6750</v>
+        <v>18100</v>
       </c>
       <c r="B17">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="C17">
-        <v>720</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10800</v>
+        <v>17100</v>
       </c>
       <c r="B18">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="C18">
-        <v>936</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5700</v>
+        <v>20300</v>
       </c>
       <c r="B19">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="C19">
-        <v>807</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4400</v>
+        <v>16400</v>
       </c>
       <c r="B20">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="C20">
-        <v>5800</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>6300</v>
+        <v>16700</v>
       </c>
       <c r="B21">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c r="C21">
-        <v>874</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10199</v>
+        <v>16500</v>
       </c>
       <c r="B22">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="C22">
-        <v>1942</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>28100</v>
+        <v>17900</v>
       </c>
       <c r="B23">
-        <v>5099</v>
+        <v>107</v>
       </c>
       <c r="C23">
-        <v>1040</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>11900</v>
+        <v>18100</v>
       </c>
       <c r="B24">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C24">
-        <v>927</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>6450</v>
+        <v>16100</v>
       </c>
       <c r="B25">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="C25">
-        <v>830</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>7400</v>
+        <v>16500</v>
       </c>
       <c r="B26">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="C26">
-        <v>1222</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>6100</v>
+        <v>17400</v>
       </c>
       <c r="B27">
-        <v>265</v>
+        <v>105</v>
       </c>
       <c r="C27">
-        <v>1019</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>6250</v>
+        <v>16500</v>
       </c>
       <c r="B28">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="C28">
-        <v>945</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>6600</v>
+        <v>20200</v>
       </c>
       <c r="B29">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="C29">
-        <v>12799</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>6400</v>
+        <v>22300</v>
       </c>
       <c r="B30">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="C30">
-        <v>700</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>6400</v>
+        <v>17600</v>
       </c>
       <c r="B31">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="C31">
-        <v>693</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5800</v>
+        <v>17800</v>
       </c>
       <c r="B32">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C32">
-        <v>740</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10101</v>
+        <v>18300</v>
       </c>
       <c r="B33">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="C33">
-        <v>849</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>7300</v>
+        <v>16600</v>
       </c>
       <c r="B34">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="C34">
-        <v>784</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>7150</v>
+        <v>16600</v>
       </c>
       <c r="B35">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="C35">
-        <v>749</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>13500</v>
+        <v>35800</v>
       </c>
       <c r="B36">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="C36">
-        <v>908</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10200</v>
+        <v>17800</v>
       </c>
       <c r="B37">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="C37">
-        <v>858</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10200</v>
+        <v>23900</v>
       </c>
       <c r="B38">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="C38">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>6600</v>
+        <v>22700</v>
       </c>
       <c r="B39">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C39">
-        <v>680</v>
+        <v>743</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7900</v>
+        <v>17600</v>
       </c>
       <c r="B40">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="C40">
-        <v>742</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5900</v>
+        <v>16900</v>
       </c>
       <c r="B41">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="C41">
-        <v>700</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>6300</v>
+        <v>16800</v>
       </c>
       <c r="B42">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="C42">
-        <v>700</v>
+        <v>721</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>6450</v>
+        <v>34600</v>
       </c>
       <c r="B43">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="C43">
-        <v>706</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>10299</v>
+        <v>13600</v>
       </c>
       <c r="B44">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="C44">
-        <v>908</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>5899</v>
+        <v>11900</v>
       </c>
       <c r="B45">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="C45">
-        <v>883</v>
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>34501</v>
+        <v>11300</v>
       </c>
       <c r="B46">
-        <v>219</v>
+        <v>113</v>
       </c>
       <c r="C46">
-        <v>858</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>6750</v>
+        <v>10900</v>
       </c>
       <c r="B47">
-        <v>291</v>
+        <v>119</v>
       </c>
       <c r="C47">
-        <v>784</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>6149</v>
+        <v>10600</v>
       </c>
       <c r="B48">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="C48">
-        <v>883</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5800</v>
+        <v>11000</v>
       </c>
       <c r="B49">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="C49">
-        <v>668</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5900</v>
+        <v>11000</v>
       </c>
       <c r="B50">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C50">
-        <v>679</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5749</v>
+        <v>11100</v>
       </c>
       <c r="B51">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C51">
-        <v>668</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5900</v>
+        <v>26400</v>
       </c>
       <c r="B52">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="C52">
-        <v>1125</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>6700</v>
+        <v>7900</v>
       </c>
       <c r="B53">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53">
-        <v>1166</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>6600</v>
+        <v>7900</v>
       </c>
       <c r="B54">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54">
-        <v>706</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>6950</v>
+        <v>10700</v>
       </c>
       <c r="B55">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55">
-        <v>866</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>6600</v>
+        <v>11700</v>
       </c>
       <c r="B56">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="C56">
-        <v>792</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>6550</v>
+        <v>11600</v>
       </c>
       <c r="B57">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C57">
-        <v>757</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>6700</v>
+        <v>10700</v>
       </c>
       <c r="B58">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C58">
-        <v>728</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>6150</v>
+        <v>11600</v>
       </c>
       <c r="B59">
-        <v>121</v>
+        <v>537</v>
       </c>
       <c r="C59">
-        <v>700</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>11201</v>
+        <v>10800</v>
       </c>
       <c r="B60">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C60">
-        <v>589</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>11599</v>
+        <v>7800</v>
       </c>
       <c r="B61">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C61">
-        <v>536</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>4033</v>
+        <v>7850</v>
       </c>
       <c r="B62">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C62">
-        <v>2899</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>6000</v>
+        <v>10400</v>
       </c>
       <c r="B63">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="C63">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>10999</v>
+        <v>11100</v>
       </c>
       <c r="B64">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="C64">
-        <v>807</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>8250</v>
+        <v>10700</v>
       </c>
       <c r="B65">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C65">
-        <v>771</v>
+        <v>666</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>10199</v>
+        <v>18400</v>
       </c>
       <c r="B66">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C66">
-        <v>972</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>7250</v>
+        <v>11300</v>
       </c>
       <c r="B67">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="C67">
-        <v>757</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>6550</v>
+        <v>13600</v>
       </c>
       <c r="B68">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C68">
-        <v>1628</v>
+        <v>747</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>6550</v>
+        <v>14800</v>
       </c>
       <c r="B69">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C69">
-        <v>686</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>10500</v>
+        <v>14400</v>
       </c>
       <c r="B70">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="C70">
-        <v>838</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>7600</v>
+        <v>37400</v>
       </c>
       <c r="B71">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="C71">
-        <v>693</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>16100</v>
+        <v>11800</v>
       </c>
       <c r="B72">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C72">
-        <v>823</v>
+        <v>429</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>11999</v>
+        <v>10700</v>
       </c>
       <c r="B73">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="C73">
-        <v>706</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>6050</v>
+        <v>11600</v>
       </c>
       <c r="B74">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="C74">
-        <v>693</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>6150</v>
+        <v>10900</v>
       </c>
       <c r="B75">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C75">
-        <v>662</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>5850</v>
+        <v>7050</v>
       </c>
       <c r="B76">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="C76">
-        <v>682</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>6100</v>
+        <v>6150</v>
       </c>
       <c r="B77">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C77">
-        <v>680</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6649</v>
+        <v>6500</v>
       </c>
       <c r="B78">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C78">
-        <v>800</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>11200</v>
+        <v>6150</v>
       </c>
       <c r="B79">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="C79">
-        <v>784</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>7650</v>
+        <v>6000</v>
       </c>
       <c r="B80">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="C80">
-        <v>784</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>6950</v>
+        <v>6150</v>
       </c>
       <c r="B81">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="C81">
-        <v>1070</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>6050</v>
+        <v>6000</v>
       </c>
       <c r="B82">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C82">
-        <v>1059</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>7750</v>
+        <v>6150</v>
       </c>
       <c r="B83">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="C83">
-        <v>891</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>6100</v>
+        <v>6150</v>
       </c>
       <c r="B84">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C84">
-        <v>728</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>32100</v>
+        <v>6200</v>
       </c>
       <c r="B85">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C85">
-        <v>3399</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>6550</v>
+        <v>5900</v>
       </c>
       <c r="B86">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="C86">
-        <v>750</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>11000</v>
+        <v>11800</v>
       </c>
       <c r="B87">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="C87">
-        <v>2049</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>6600</v>
+        <v>10900</v>
       </c>
       <c r="B88">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C88">
-        <v>757</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>10199</v>
+        <v>12800</v>
       </c>
       <c r="B89">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="C89">
-        <v>662</v>
+        <v>377</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>5299</v>
+        <v>6600</v>
       </c>
       <c r="B90">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C90">
-        <v>536</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>5900</v>
+        <v>6250</v>
       </c>
       <c r="B91">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C91">
-        <v>927</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>6099</v>
+        <v>6250</v>
       </c>
       <c r="B92">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C92">
-        <v>868</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>6900</v>
+        <v>12200</v>
       </c>
       <c r="B93">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="C93">
-        <v>792</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>11900</v>
+        <v>11100</v>
       </c>
       <c r="B94">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="C94">
-        <v>1030</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>6600</v>
+        <v>12000</v>
       </c>
       <c r="B95">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C95">
-        <v>699</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>6250</v>
+        <v>14600</v>
       </c>
       <c r="B96">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="C96">
-        <v>764</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6850</v>
+        <v>12800</v>
       </c>
       <c r="B97">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C97">
-        <v>1030</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>7950</v>
+        <v>11800</v>
       </c>
       <c r="B98">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C98">
-        <v>713</v>
+        <v>407</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>6800</v>
+        <v>18100</v>
       </c>
       <c r="B99">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="C99">
-        <v>792</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>6150</v>
+        <v>7200</v>
       </c>
       <c r="B100">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C100">
-        <v>668</v>
+        <v>362</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>5650</v>
+        <v>6100</v>
       </c>
       <c r="B101">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="C101">
-        <v>784</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2792,7 +2781,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,76 +2797,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
-      <c r="H1" t="e">
-        <f>MEDIAN(A2:A102)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I1" t="e">
-        <f t="shared" ref="I1:J1" si="0">MEDIAN(B2:B102)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="H1">
+        <f>MEDIAN(A1:A101)</f>
+        <v>14100</v>
+      </c>
+      <c r="I1">
+        <f>MEDIAN(B2:B101)</f>
+        <v>94</v>
+      </c>
+      <c r="J1">
+        <f>MEDIAN(C2:C101)</f>
+        <v>408.5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>13100</v>
+        <v>46300</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="C2">
-        <v>918</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>8750</v>
+        <v>25500</v>
       </c>
       <c r="B3">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C3">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3933</v>
+        <v>14100</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C4">
-        <v>519</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4133</v>
+        <v>13200</v>
       </c>
       <c r="B5">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C5">
-        <v>1457</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4133</v>
+        <v>13600</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>456</v>
@@ -2885,626 +2874,626 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4199</v>
+        <v>14400</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C7">
-        <v>452</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4166</v>
+        <v>14100</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C8">
-        <v>486</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4066</v>
+        <v>13800</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C9">
-        <v>1036</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5249</v>
+        <v>14300</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C10">
-        <v>542</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3000</v>
+        <v>13600</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C11">
-        <v>381</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4166</v>
+        <v>13500</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C12">
-        <v>600</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3666</v>
+        <v>18200</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C13">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2925</v>
+        <v>34800</v>
       </c>
       <c r="B14">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C14">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5550</v>
+        <v>15300</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C15">
-        <v>346</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1542</v>
+        <v>17000</v>
       </c>
       <c r="B16">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C16">
-        <v>240</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5750</v>
+        <v>15200</v>
       </c>
       <c r="B17">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="C17">
-        <v>456</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4400</v>
+        <v>14200</v>
       </c>
       <c r="B18">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C18">
-        <v>468</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4100</v>
+        <v>13300</v>
       </c>
       <c r="B19">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C19">
-        <v>495</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4166</v>
+        <v>14500</v>
       </c>
       <c r="B20">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C20">
-        <v>490</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3800</v>
+        <v>13100</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C21">
-        <v>743</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5166</v>
+        <v>13600</v>
       </c>
       <c r="B22">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C22">
-        <v>504</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5549</v>
+        <v>13200</v>
       </c>
       <c r="B23">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C23">
-        <v>495</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4233</v>
+        <v>13100</v>
       </c>
       <c r="B24">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C24">
-        <v>673</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4400</v>
+        <v>18100</v>
       </c>
       <c r="B25">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C25">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>3833</v>
+        <v>13400</v>
       </c>
       <c r="B26">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C26">
-        <v>515</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4233</v>
+        <v>13300</v>
       </c>
       <c r="B27">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C27">
-        <v>807</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3766</v>
+        <v>13200</v>
       </c>
       <c r="B28">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C28">
-        <v>443</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3933</v>
+        <v>15000</v>
       </c>
       <c r="B29">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C29">
-        <v>643</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>3666</v>
+        <v>16700</v>
       </c>
       <c r="B30">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C30">
-        <v>429</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>6250</v>
+        <v>13700</v>
       </c>
       <c r="B31">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C31">
-        <v>933</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5899</v>
+        <v>13300</v>
       </c>
       <c r="B32">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C32">
-        <v>515</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>4300</v>
+        <v>14100</v>
       </c>
       <c r="B33">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C33">
-        <v>463</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>5333</v>
+        <v>16600</v>
       </c>
       <c r="B34">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C34">
-        <v>495</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6000</v>
+        <v>16900</v>
       </c>
       <c r="B35">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C35">
-        <v>459</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>4000</v>
+        <v>14400</v>
       </c>
       <c r="B36">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C36">
-        <v>600</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4200</v>
+        <v>12900</v>
       </c>
       <c r="B37">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C37">
-        <v>433</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2824</v>
+        <v>13600</v>
       </c>
       <c r="B38">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C38">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2975</v>
+        <v>13100</v>
       </c>
       <c r="B39">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C39">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2775</v>
+        <v>12700</v>
       </c>
       <c r="B40">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C40">
-        <v>451</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>17499</v>
+        <v>12600</v>
       </c>
       <c r="B41">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C41">
-        <v>355</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>3666</v>
+        <v>13000</v>
       </c>
       <c r="B42">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C42">
-        <v>447</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2875</v>
+        <v>13400</v>
       </c>
       <c r="B43">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C43">
-        <v>367</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2874</v>
+        <v>17500</v>
       </c>
       <c r="B44">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C44">
-        <v>388</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>5600</v>
+        <v>13200</v>
       </c>
       <c r="B45">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C45">
-        <v>425</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>4333</v>
+        <v>12400</v>
       </c>
       <c r="B46">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C46">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>30600</v>
+        <v>23300</v>
       </c>
       <c r="B47">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C47">
-        <v>367</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1733</v>
+        <v>14200</v>
       </c>
       <c r="B48">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="C48">
-        <v>362</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2079</v>
+        <v>15900</v>
       </c>
       <c r="B49">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C49">
-        <v>381</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1500</v>
+        <v>14100</v>
       </c>
       <c r="B50">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C50">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1849</v>
+        <v>16700</v>
       </c>
       <c r="B51">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="C51">
-        <v>392</v>
+        <v>566</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>3833</v>
+        <v>16300</v>
       </c>
       <c r="B52">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C52">
-        <v>643</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>6100</v>
+        <v>16500</v>
       </c>
       <c r="B53">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="C53">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3600</v>
+        <v>14900</v>
       </c>
       <c r="B54">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="C54">
-        <v>694</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>3466</v>
+        <v>36400</v>
       </c>
       <c r="B55">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="C55">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2099</v>
+        <v>13700</v>
       </c>
       <c r="B56">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C56">
-        <v>364</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1800</v>
+        <v>15500</v>
       </c>
       <c r="B57">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C57">
-        <v>468</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2100</v>
+        <v>15100</v>
       </c>
       <c r="B58">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C58">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1750</v>
+        <v>13300</v>
       </c>
       <c r="B59">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C59">
-        <v>463</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1716</v>
+        <v>15600</v>
       </c>
       <c r="B60">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="C60">
-        <v>456</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1800</v>
+        <v>19500</v>
       </c>
       <c r="B61">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C61">
-        <v>495</v>
+        <v>385</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1528</v>
+        <v>13400</v>
       </c>
       <c r="B62">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C62">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1749</v>
+        <v>15000</v>
       </c>
       <c r="B63">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="C63">
         <v>412</v>
@@ -3512,420 +3501,420 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1750</v>
+        <v>18300</v>
       </c>
       <c r="B64">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="C64">
-        <v>5400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>48900</v>
+        <v>15500</v>
       </c>
       <c r="B65">
-        <v>335</v>
+        <v>108</v>
       </c>
       <c r="C65">
-        <v>2833</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>5650</v>
+        <v>15300</v>
       </c>
       <c r="B66">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="C66">
-        <v>536</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3567</v>
+        <v>22500</v>
       </c>
       <c r="B67">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C67">
-        <v>472</v>
+        <v>600</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>3550</v>
+        <v>15200</v>
       </c>
       <c r="B68">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C68">
-        <v>463</v>
+        <v>433</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>5650</v>
+        <v>13900</v>
       </c>
       <c r="B69">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="C69">
-        <v>536</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1800</v>
+        <v>16200</v>
       </c>
       <c r="B70">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C70">
-        <v>408</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>4000</v>
+        <v>15300</v>
       </c>
       <c r="B71">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="C71">
-        <v>991</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1500</v>
+        <v>13700</v>
       </c>
       <c r="B72">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="C72">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1733</v>
+        <v>27200</v>
       </c>
       <c r="B73">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C73">
-        <v>375</v>
+        <v>828</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1800</v>
+        <v>14000</v>
       </c>
       <c r="B74">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C74">
-        <v>362</v>
+        <v>485</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2650</v>
+        <v>13300</v>
       </c>
       <c r="B75">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C75">
-        <v>629</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1850</v>
+        <v>46700</v>
       </c>
       <c r="B76">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="C76">
-        <v>643</v>
+        <v>495</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2650</v>
+        <v>23200</v>
       </c>
       <c r="B77">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="C77">
-        <v>388</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1850</v>
+        <v>17800</v>
       </c>
       <c r="B78">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C78">
-        <v>364</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>3075</v>
+        <v>17100</v>
       </c>
       <c r="B79">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C79">
-        <v>481</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1312</v>
+        <v>12800</v>
       </c>
       <c r="B80">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C80">
-        <v>412</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2200</v>
+        <v>12000</v>
       </c>
       <c r="B81">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C81">
-        <v>429</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2080</v>
+        <v>11300</v>
       </c>
       <c r="B82">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C82">
-        <v>367</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1528</v>
+        <v>19300</v>
       </c>
       <c r="B83">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C83">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2750</v>
+        <v>11200</v>
       </c>
       <c r="B84">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C84">
-        <v>437</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1585</v>
+        <v>13100</v>
       </c>
       <c r="B85">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C85">
-        <v>536</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>2100</v>
+        <v>11200</v>
       </c>
       <c r="B86">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C86">
-        <v>463</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1557</v>
+        <v>11200</v>
       </c>
       <c r="B87">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C87">
-        <v>433</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2625</v>
+        <v>10600</v>
       </c>
       <c r="B88">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C88">
-        <v>505</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1262</v>
+        <v>11200</v>
       </c>
       <c r="B89">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C89">
-        <v>447</v>
+        <v>409</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1783</v>
+        <v>11100</v>
       </c>
       <c r="B90">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C90">
-        <v>452</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1766</v>
+        <v>11300</v>
       </c>
       <c r="B91">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C91">
-        <v>408</v>
+        <v>340</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>72350</v>
+        <v>11400</v>
       </c>
       <c r="B92">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C92">
-        <v>62801</v>
+        <v>343</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>5449</v>
+        <v>20700</v>
       </c>
       <c r="B93">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C93">
-        <v>4333</v>
+        <v>463</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>2300</v>
+        <v>13700</v>
       </c>
       <c r="B94">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C94">
-        <v>3433</v>
+        <v>433</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>5749</v>
+        <v>13000</v>
       </c>
       <c r="B95">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C95">
-        <v>1800</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1557</v>
+        <v>13800</v>
       </c>
       <c r="B96">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="C96">
-        <v>3433</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2320</v>
+        <v>14200</v>
       </c>
       <c r="B97">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C97">
-        <v>3466</v>
+        <v>589</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>2219</v>
+        <v>13900</v>
       </c>
       <c r="B98">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C98">
-        <v>3367</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>2100</v>
+        <v>37700</v>
       </c>
       <c r="B99">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C99">
-        <v>3149</v>
+        <v>495</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>2159</v>
+        <v>15600</v>
       </c>
       <c r="B100">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="C100">
-        <v>3499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>2299</v>
+        <v>15300</v>
       </c>
       <c r="B101">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C101">
-        <v>3433</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -3941,7 +3930,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A101" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3957,1124 +3946,1124 @@
         <v>2</v>
       </c>
       <c r="D1" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
-      <c r="H1" t="e">
-        <f>MEDIAN(A2:A102)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I1" t="e">
-        <f t="shared" ref="I1:J1" si="0">MEDIAN(B2:B102)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="H1">
+        <f>MEDIAN(A2:A101)</f>
+        <v>7300</v>
+      </c>
+      <c r="I1">
+        <f>MEDIAN(B2:B101)</f>
+        <v>117.5</v>
+      </c>
+      <c r="J1">
+        <f>MEDIAN(C2:C101)</f>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>221</v>
+        <v>18200</v>
       </c>
       <c r="B2">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="C2">
-        <v>2080</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>237</v>
+        <v>14000</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="C3">
-        <v>784</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>490</v>
+        <v>10400</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="C4">
-        <v>792</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>340</v>
+        <v>39600</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="C5">
-        <v>1287</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>572</v>
+        <v>12400</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="C6">
-        <v>13100</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>325</v>
+        <v>7600</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C7">
-        <v>407</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>381</v>
+        <v>6350</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C8">
-        <v>1036</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>396</v>
+        <v>6100</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C9">
-        <v>441</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>381</v>
+        <v>5850</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C10">
-        <v>441</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>381</v>
+        <v>5900</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C11">
-        <v>404</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>294</v>
+        <v>6300</v>
       </c>
       <c r="B12">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="C12">
-        <v>668</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>332</v>
+        <v>7000</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C13">
-        <v>5600</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>396</v>
+        <v>5750</v>
       </c>
       <c r="B14">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C14">
-        <v>348</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>399</v>
+        <v>5900</v>
       </c>
       <c r="B15">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C15">
-        <v>577</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>385</v>
+        <v>6750</v>
       </c>
       <c r="B16">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C16">
-        <v>392</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>408</v>
+        <v>5750</v>
       </c>
       <c r="B17">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C17">
-        <v>404</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>396</v>
+        <v>6550</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C18">
-        <v>392</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>412</v>
+        <v>5800</v>
       </c>
       <c r="B19">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C19">
-        <v>403</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>433</v>
+        <v>5900</v>
       </c>
       <c r="B20">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C20">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>433</v>
+        <v>5600</v>
       </c>
       <c r="B21">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C21">
-        <v>396</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>420</v>
+        <v>5550</v>
       </c>
       <c r="B22">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C22">
-        <v>371</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>429</v>
+        <v>5450</v>
       </c>
       <c r="B23">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C23">
-        <v>1520</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>447</v>
+        <v>5500</v>
       </c>
       <c r="B24">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="C24">
-        <v>374</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>18100</v>
+        <v>5550</v>
       </c>
       <c r="B25">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C25">
-        <v>371</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>429</v>
+        <v>7200</v>
       </c>
       <c r="B26">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C26">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>18100</v>
+        <v>5700</v>
       </c>
       <c r="B27">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C27">
-        <v>367</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>408</v>
+        <v>6000</v>
       </c>
       <c r="B28">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C28">
-        <v>381</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>600</v>
+        <v>5800</v>
       </c>
       <c r="B29">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C29">
-        <v>2150</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>686</v>
+        <v>5600</v>
       </c>
       <c r="B30">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C30">
-        <v>485</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>918</v>
+        <v>11800</v>
       </c>
       <c r="B31">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="C31">
-        <v>439</v>
+        <v>656</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>807</v>
+        <v>10600</v>
       </c>
       <c r="B32">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="C32">
-        <v>420</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>954</v>
+        <v>10200</v>
       </c>
       <c r="B33">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="C33">
-        <v>447</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2780</v>
+        <v>7150</v>
       </c>
       <c r="B34">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="C34">
-        <v>396</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>631</v>
+        <v>11300</v>
       </c>
       <c r="B35">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="C35">
-        <v>472</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>866</v>
+        <v>13400</v>
       </c>
       <c r="B36">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C36">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>735</v>
+        <v>9300</v>
       </c>
       <c r="B37">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="C37">
-        <v>408</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>927</v>
+        <v>7300</v>
       </c>
       <c r="B38">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C38">
-        <v>472</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>850</v>
+        <v>10200</v>
       </c>
       <c r="B39">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="C39">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>883</v>
+        <v>7200</v>
       </c>
       <c r="B40">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="C40">
-        <v>477</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1674</v>
+        <v>11100</v>
       </c>
       <c r="B41">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="C41">
-        <v>364</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>656</v>
+        <v>12200</v>
       </c>
       <c r="B42">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="C42">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>728</v>
+        <v>11600</v>
       </c>
       <c r="B43">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C43">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>7450</v>
+        <v>6850</v>
       </c>
       <c r="B44">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="C44">
-        <v>355</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>721</v>
+        <v>10800</v>
       </c>
       <c r="B45">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="C45">
-        <v>367</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>680</v>
+        <v>10900</v>
       </c>
       <c r="B46">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="C46">
-        <v>515</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1399</v>
+        <v>10600</v>
       </c>
       <c r="B47">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="C47">
-        <v>336</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>583</v>
+        <v>10800</v>
       </c>
       <c r="B48">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="C48">
-        <v>318</v>
+        <v>485</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>510</v>
+        <v>11000</v>
       </c>
       <c r="B49">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C49">
-        <v>315</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>18099</v>
+        <v>7000</v>
       </c>
       <c r="B50">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="C50">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>594</v>
+        <v>6300</v>
       </c>
       <c r="B51">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C51">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>429</v>
+        <v>6400</v>
       </c>
       <c r="B52">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="C52">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>437</v>
+        <v>6750</v>
       </c>
       <c r="B53">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C53">
-        <v>437</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>392</v>
+        <v>6800</v>
       </c>
       <c r="B54">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="C54">
-        <v>351</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>433</v>
+        <v>7100</v>
       </c>
       <c r="B55">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C55">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>425</v>
+        <v>6300</v>
       </c>
       <c r="B56">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C56">
-        <v>367</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>548</v>
+        <v>6450</v>
       </c>
       <c r="B57">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C57">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>385</v>
+        <v>7350</v>
       </c>
       <c r="B58">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C58">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>355</v>
+        <v>6800</v>
       </c>
       <c r="B59">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C59">
-        <v>335</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>355</v>
+        <v>6450</v>
       </c>
       <c r="B60">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C60">
-        <v>351</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>443</v>
+        <v>6350</v>
       </c>
       <c r="B61">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C61">
-        <v>400</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>403</v>
+        <v>6450</v>
       </c>
       <c r="B62">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C62">
-        <v>339</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>348</v>
+        <v>13000</v>
       </c>
       <c r="B63">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C63">
-        <v>300</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>346</v>
+        <v>6350</v>
       </c>
       <c r="B64">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C64">
-        <v>300</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>346</v>
+        <v>40100</v>
       </c>
       <c r="B65">
-        <v>46</v>
+        <v>515</v>
       </c>
       <c r="C65">
-        <v>433</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>388</v>
+        <v>13100</v>
       </c>
       <c r="B66">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="C66">
-        <v>400</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>349</v>
+        <v>13600</v>
       </c>
       <c r="B67">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="C67">
-        <v>329</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>374</v>
+        <v>11800</v>
       </c>
       <c r="B68">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C68">
-        <v>770</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>377</v>
+        <v>11000</v>
       </c>
       <c r="B69">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="C69">
-        <v>321</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>348</v>
+        <v>12000</v>
       </c>
       <c r="B70">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="C70">
-        <v>343</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>377</v>
+        <v>12700</v>
       </c>
       <c r="B71">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="C71">
-        <v>530</v>
+        <v>584</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
+        <v>11000</v>
+      </c>
+      <c r="B72">
+        <v>179</v>
+      </c>
+      <c r="C72">
         <v>392</v>
-      </c>
-      <c r="B72">
-        <v>45</v>
-      </c>
-      <c r="C72">
-        <v>346</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>377</v>
+        <v>13400</v>
       </c>
       <c r="B73">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C73">
-        <v>300</v>
+        <v>392</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>381</v>
+        <v>10950</v>
       </c>
       <c r="B74">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="C74">
-        <v>340</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>371</v>
+        <v>11800</v>
       </c>
       <c r="B75">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="C75">
-        <v>339</v>
+        <v>433</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>381</v>
+        <v>18800</v>
       </c>
       <c r="B76">
-        <v>45</v>
+        <v>369</v>
       </c>
       <c r="C76">
-        <v>531</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>381</v>
+        <v>10700</v>
       </c>
       <c r="B77">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="C77">
-        <v>300</v>
+        <v>15200</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>312</v>
+        <v>11400</v>
       </c>
       <c r="B78">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C78">
-        <v>309</v>
+        <v>784</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>416</v>
+        <v>10400</v>
       </c>
       <c r="B79">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="C79">
-        <v>305</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>371</v>
+        <v>16400</v>
       </c>
       <c r="B80">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="C80">
-        <v>338</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>472</v>
+        <v>6800</v>
       </c>
       <c r="B81">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C81">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>371</v>
+        <v>5350</v>
       </c>
       <c r="B82">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C82">
-        <v>332</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>392</v>
+        <v>10900</v>
       </c>
       <c r="B83">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="C83">
-        <v>346</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>728</v>
+        <v>7300</v>
       </c>
       <c r="B84">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="C84">
-        <v>348</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>158</v>
+        <v>10200</v>
       </c>
       <c r="B85">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="C85">
-        <v>362</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>151</v>
+        <v>19200</v>
       </c>
       <c r="B86">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C86">
-        <v>1700</v>
+        <v>838</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>177</v>
+        <v>11400</v>
       </c>
       <c r="B87">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="C87">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>157</v>
+        <v>10500</v>
       </c>
       <c r="B88">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="C88">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>150</v>
+        <v>18000</v>
       </c>
       <c r="B89">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="C89">
-        <v>254</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>150</v>
+        <v>13600</v>
       </c>
       <c r="B90">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="C90">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>147</v>
+        <v>7100</v>
       </c>
       <c r="B91">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="C91">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>142</v>
+        <v>7750</v>
       </c>
       <c r="B92">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="C92">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>175</v>
+        <v>5700</v>
       </c>
       <c r="B93">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="C93">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
+        <v>5900</v>
+      </c>
+      <c r="B94">
         <v>145</v>
       </c>
-      <c r="B94">
-        <v>49</v>
-      </c>
       <c r="C94">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>136</v>
+        <v>14600</v>
       </c>
       <c r="B95">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="C95">
-        <v>217</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>137</v>
+        <v>21200</v>
       </c>
       <c r="B96">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C96">
-        <v>280</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>164</v>
+        <v>6250</v>
       </c>
       <c r="B97">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="C97">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>138</v>
+        <v>4400</v>
       </c>
       <c r="B98">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C98">
-        <v>309</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>137</v>
+        <v>4166</v>
       </c>
       <c r="B99">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C99">
-        <v>257</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>135</v>
+        <v>7150</v>
       </c>
       <c r="B100">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C100">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>237</v>
+        <v>4266</v>
       </c>
       <c r="B101">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C101">
-        <v>255</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
